--- a/src/variable selection.xlsx
+++ b/src/variable selection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangquchen/Documents/GitHub/homeownership-tsa/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5040B4F0-12DA-E54B-9610-91B473B38616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0E62CB-4DBE-0948-BDD6-DB49BDD16F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24400" yWindow="500" windowWidth="14000" windowHeight="19240" activeTab="1" xr2:uid="{15BA51E0-840C-B645-9F8F-61145BA72E8A}"/>
+    <workbookView xWindow="19600" yWindow="500" windowWidth="14000" windowHeight="18640" activeTab="1" xr2:uid="{15BA51E0-840C-B645-9F8F-61145BA72E8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
   <si>
     <t>JJ</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>granger cause</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>MAPE</t>
   </si>
 </sst>
 </file>
@@ -175,7 +181,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -588,10 +605,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F217F390-C529-D841-AD46-B2B3FAE351B9}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -798,13 +815,13 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>0.89059999999999995</v>
+        <v>0.25490000000000002</v>
       </c>
       <c r="C18" s="2">
-        <v>0.97030000000000005</v>
+        <v>0.15790000000000001</v>
       </c>
       <c r="D18">
-        <v>0.95499999999999996</v>
+        <v>0.18190000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -812,13 +829,13 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>0.99490000000000001</v>
+        <v>0.24709999999999999</v>
       </c>
       <c r="C19">
-        <v>0.1109</v>
+        <v>0.92310000000000003</v>
       </c>
       <c r="D19">
-        <v>1.6899999999999998E-2</v>
+        <v>0.76019999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -826,13 +843,13 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>0.97860000000000003</v>
+        <v>0.71879999999999999</v>
       </c>
       <c r="C20">
-        <v>0.92679999999999996</v>
+        <v>0.51590000000000003</v>
       </c>
       <c r="D20">
-        <v>0.77829999999999999</v>
+        <v>0.68259999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -840,13 +857,13 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>0.6704</v>
+        <v>0.32869999999999999</v>
       </c>
       <c r="C21">
-        <v>4.0000000000000002E-4</v>
+        <v>0.44629999999999997</v>
       </c>
       <c r="D21" s="3">
-        <v>1.235E-5</v>
+        <v>0.4793</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -854,13 +871,13 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>3.9199999999999999E-2</v>
+        <v>7.2010000000000005E-2</v>
       </c>
       <c r="C22" s="3">
-        <v>1.0600000000000001E-8</v>
+        <v>0.28320000000000001</v>
       </c>
       <c r="D22" s="3">
-        <v>1.8960000000000001E-9</v>
+        <v>0.44750000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -868,13 +885,13 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>0.94550000000000001</v>
+        <v>0.22439999999999999</v>
       </c>
       <c r="C23">
-        <v>0.99790000000000001</v>
+        <v>0.74739999999999995</v>
       </c>
       <c r="D23">
-        <v>0.9516</v>
+        <v>0.75849999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -882,46 +899,55 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <v>0.1268</v>
+        <v>0.73780000000000001</v>
       </c>
       <c r="C24" s="3">
-        <v>3.4770000000000001E-5</v>
+        <v>0.79659999999999997</v>
       </c>
       <c r="D24" s="3">
-        <v>3.5639999999999998E-5</v>
+        <v>0.51549999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
+      <c r="B25">
+        <v>3.6509999999999998E-4</v>
+      </c>
+      <c r="C25">
+        <v>2.9790000000000001E-2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.21820000000000001</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
       <c r="B26">
-        <v>0.6089</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="C26" s="3">
-        <v>0.43940000000000001</v>
+        <v>0.71640000000000004</v>
       </c>
       <c r="D26" s="3">
-        <v>0.62450000000000006</v>
+        <v>0.66600000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B27">
-        <v>2.7579999999999998E-4</v>
+      <c r="B27" s="3">
+        <v>5.253E-5</v>
       </c>
       <c r="C27">
-        <v>5.1679999999999999E-4</v>
-      </c>
-      <c r="D27">
-        <v>4.0330000000000001E-3</v>
+        <v>2.9840000000000001E-3</v>
+      </c>
+      <c r="D27" s="3">
+        <v>7.1260000000000004E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -929,19 +955,32 @@
         <v>25</v>
       </c>
       <c r="B28" s="3">
-        <v>2.7360000000000001E-6</v>
+        <v>1.73E-4</v>
       </c>
       <c r="C28" s="3">
-        <v>1.251E-6</v>
+        <v>7.6059999999999999E-3</v>
       </c>
       <c r="D28" s="3">
-        <v>1.6120000000000002E-5</v>
+        <v>5.3379999999999997E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B18:D28">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/variable selection.xlsx
+++ b/src/variable selection.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangquchen/Documents/GitHub/homeownership-tsa/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0E62CB-4DBE-0948-BDD6-DB49BDD16F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9658E000-F702-1146-8F2C-8625B09E47B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="14000" windowHeight="18640" activeTab="1" xr2:uid="{15BA51E0-840C-B645-9F8F-61145BA72E8A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{15BA51E0-840C-B645-9F8F-61145BA72E8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="33">
   <si>
     <t>JJ</t>
   </si>
@@ -129,10 +129,13 @@
     <t>granger cause</t>
   </si>
   <si>
-    <t>PM</t>
-  </si>
-  <si>
-    <t>MAPE</t>
+    <t>original</t>
+  </si>
+  <si>
+    <t>log transformation</t>
+  </si>
+  <si>
+    <t>p value</t>
   </si>
 </sst>
 </file>
@@ -168,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -177,6 +180,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,23 +614,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F217F390-C529-D841-AD46-B2B3FAE351B9}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -964,17 +974,148 @@
         <v>5.3379999999999997E-2</v>
       </c>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="4"/>
+    </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+      <c r="A32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="5">
+        <v>2.9E-5</v>
+      </c>
+      <c r="C37" s="5">
+        <v>7.4000000000000003E-10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="1">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.13</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B31:C31"/>
   </mergeCells>
   <conditionalFormatting sqref="B18:D28">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
